--- a/data/trans_orig/IP07C22_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56AADEE1-5399-4BA9-A4E4-257399228BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F71C274-84C5-4F13-A961-226F8F69F49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{881D9E7B-C65B-4035-A631-4B62302132D6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A2AB6EAA-8F02-4F8A-AD36-08E11B2D2A10}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,204 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
     <t>6,85%</t>
   </si>
   <si>
@@ -116,39 +293,9 @@
     <t>8,83%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,07%</t>
   </si>
   <si>
@@ -170,33 +317,6 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
@@ -221,124 +341,58 @@
     <t>2,49%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -365,33 +419,6 @@
     <t>8,66%</t>
   </si>
   <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
@@ -411,33 +438,6 @@
   </si>
   <si>
     <t>2,58%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDC1438-B11D-477A-97FB-A7F96CB6475C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D050107-E399-4C2F-BFC8-9B74D4994A65}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1246,10 +1246,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>15457</v>
+        <v>26633</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1261,10 +1261,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>9268</v>
+        <v>13379</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1276,10 +1276,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N10" s="7">
-        <v>24725</v>
+        <v>40012</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -1297,10 +1297,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>79194</v>
+        <v>11337</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -1312,10 +1312,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>52563</v>
+        <v>15804</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -1327,10 +1327,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>131756</v>
+        <v>27141</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -1348,10 +1348,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>852</v>
+        <v>3407</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -1363,10 +1363,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>3894</v>
+        <v>1160</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -1381,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>4746</v>
+        <v>4567</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -1399,49 +1399,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>127528</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>981</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>143</v>
-      </c>
-      <c r="I13" s="7">
-        <v>100970</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>981</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>294</v>
-      </c>
-      <c r="N13" s="7">
-        <v>228497</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,49 +1450,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2774</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2676</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2676</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1851</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4625</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,102 +1501,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>225805</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>394349</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="D16" s="7">
-        <v>3407</v>
+        <v>127528</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7">
+        <v>143</v>
+      </c>
+      <c r="I16" s="7">
+        <v>100970</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>294</v>
+      </c>
+      <c r="N16" s="7">
+        <v>228497</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1160</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4567</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,49 +1605,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>11337</v>
+        <v>79194</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
+        <v>61</v>
+      </c>
+      <c r="I17" s="7">
+        <v>52563</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>144</v>
+      </c>
+      <c r="N17" s="7">
+        <v>131756</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="7">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15804</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="7">
-        <v>31</v>
-      </c>
-      <c r="N17" s="7">
-        <v>27141</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,49 +1656,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>15457</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="7">
+        <v>14</v>
+      </c>
+      <c r="I18" s="7">
+        <v>9268</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>981</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>32</v>
+      </c>
+      <c r="N18" s="7">
+        <v>24725</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>981</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,49 +1707,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>26633</v>
+        <v>852</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3894</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13379</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4746</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="7">
-        <v>53</v>
-      </c>
-      <c r="N19" s="7">
-        <v>40012</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,40 +1758,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2774</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>2676</v>
+        <v>1851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>97</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>2676</v>
+        <v>4625</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>98</v>
@@ -1809,49 +1809,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>225805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>394349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,10 +1862,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="D22" s="7">
-        <v>18864</v>
+        <v>154160</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>101</v>
@@ -1874,37 +1874,37 @@
         <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I22" s="7">
-        <v>10428</v>
+        <v>114349</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="N22" s="7">
-        <v>29292</v>
+        <v>268509</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>90530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>80</v>
@@ -1934,13 +1934,13 @@
         <v>68367</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M23" s="7">
         <v>175</v>
@@ -1949,13 +1949,13 @@
         <v>158897</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,49 +1964,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>852</v>
+        <v>18864</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
-        <v>4875</v>
+        <v>10428</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="N24" s="7">
-        <v>5727</v>
+        <v>29292</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,46 +2015,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>154160</v>
+        <v>852</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
-        <v>163</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>114349</v>
+        <v>4875</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
-        <v>347</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>268509</v>
+        <v>5727</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>133</v>
@@ -2123,13 +2123,13 @@
         <v>267180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -2138,13 +2138,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>577</v>
@@ -2153,13 +2153,13 @@
         <v>469726</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C22_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F71C274-84C5-4F13-A961-226F8F69F49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E958CD17-ABE6-4E5F-B9E6-B9B3B40AFFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A2AB6EAA-8F02-4F8A-AD36-08E11B2D2A10}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEE8CE95-452A-4354-9C51-0115C0400196}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="148">
   <si>
     <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -65,406 +65,421 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
   </si>
   <si>
     <t>56,46%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -475,7 +490,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -571,39 +586,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -655,7 +670,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -766,13 +781,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -781,6 +789,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -845,19 +860,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D050107-E399-4C2F-BFC8-9B74D4994A65}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E4567-616B-4579-A3F6-1A4DBDCBDEAC}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1246,49 +1281,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7">
-        <v>26633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>53</v>
-      </c>
-      <c r="N10" s="7">
-        <v>40012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,49 +1326,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11337</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15804</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>31</v>
-      </c>
-      <c r="N11" s="7">
-        <v>27141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,49 +1371,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4567</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,47 +1418,41 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,47 +1463,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,102 +1506,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>127528</v>
+        <v>965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>100970</v>
+        <v>2676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>228497</v>
+        <v>3641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,49 +1604,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>79194</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>52563</v>
+        <v>2191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>131756</v>
+        <v>2191</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,49 +1655,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>15457</v>
+        <v>6879</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>9268</v>
+        <v>2982</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>24725</v>
+        <v>9860</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,49 +1706,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>852</v>
+        <v>27625</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>3894</v>
+        <v>26761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="N19" s="7">
-        <v>4746</v>
+        <v>54386</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,49 +1757,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>2774</v>
+        <v>63880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I20" s="7">
-        <v>1851</v>
+        <v>37055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="N20" s="7">
-        <v>4625</v>
+        <v>100935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,102 +1808,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>225805</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>483</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>394349</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>154160</v>
+        <v>1809</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>114349</v>
+        <v>1851</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
-        <v>347</v>
+        <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>268509</v>
+        <v>3660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,49 +1912,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>90530</v>
+        <v>852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>68367</v>
+        <v>2684</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>158897</v>
+        <v>3536</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,49 +1963,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>18864</v>
+        <v>11985</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>10428</v>
+        <v>7446</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>29292</v>
+        <v>19431</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,49 +2014,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D25" s="7">
-        <v>852</v>
+        <v>62905</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I25" s="7">
-        <v>4875</v>
+        <v>41606</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="N25" s="7">
-        <v>5727</v>
+        <v>104512</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,49 +2065,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D26" s="7">
-        <v>2774</v>
+        <v>90281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="I26" s="7">
-        <v>4527</v>
+        <v>77293</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="N26" s="7">
-        <v>7301</v>
+        <v>167574</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,55 +2116,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2774</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4527</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M28" s="7">
+        <v>10</v>
+      </c>
+      <c r="N28" s="7">
+        <v>7301</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>852</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="7">
+        <v>6</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4875</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="7">
+        <v>7</v>
+      </c>
+      <c r="N29" s="7">
+        <v>5727</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7">
+        <v>18864</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="7">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10428</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7">
+        <v>38</v>
+      </c>
+      <c r="N30" s="7">
+        <v>29292</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>95</v>
+      </c>
+      <c r="D31" s="7">
+        <v>90530</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="7">
+        <v>80</v>
+      </c>
+      <c r="I31" s="7">
+        <v>68367</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="7">
+        <v>175</v>
+      </c>
+      <c r="N31" s="7">
+        <v>158897</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>184</v>
+      </c>
+      <c r="D32" s="7">
+        <v>154160</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="7">
+        <v>163</v>
+      </c>
+      <c r="I32" s="7">
+        <v>114349</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M32" s="7">
+        <v>347</v>
+      </c>
+      <c r="N32" s="7">
+        <v>268509</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>267180</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7">
         <v>577</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>469726</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>56</v>
+      <c r="O33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C22_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E958CD17-ABE6-4E5F-B9E6-B9B3B40AFFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCA6DC7-A5AC-40A4-9CB5-7B75700E50C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CEE8CE95-452A-4354-9C51-0115C0400196}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EE16F2D-1DE9-47BA-B975-DBDD45056DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
   <si>
     <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -98,25 +98,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>4,94%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
   </si>
   <si>
     <t>0%</t>
@@ -128,10 +128,10 @@
     <t>3,06%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -140,343 +140,349 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>4,17%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>40,96%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>33,83%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
   </si>
   <si>
     <t>56,46%</t>
   </si>
   <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -891,7 +897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4E4567-616B-4579-A3F6-1A4DBDCBDEAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBE6C4D-3262-4376-B465-4171DCF94C91}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1870,10 +1876,10 @@
         <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -1897,13 +1903,13 @@
         <v>3660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1924,13 @@
         <v>852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -1933,10 +1939,10 @@
         <v>2684</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>74</v>
@@ -2226,13 +2232,13 @@
         <v>852</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2241,13 +2247,13 @@
         <v>4875</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2256,13 +2262,13 @@
         <v>5727</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2283,13 @@
         <v>18864</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -2292,13 +2298,13 @@
         <v>10428</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
@@ -2307,13 +2313,13 @@
         <v>29292</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2334,13 @@
         <v>90530</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H31" s="7">
         <v>80</v>
@@ -2343,13 +2349,13 @@
         <v>68367</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M31" s="7">
         <v>175</v>
@@ -2358,13 +2364,13 @@
         <v>158897</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2385,13 @@
         <v>154160</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7">
         <v>163</v>
@@ -2394,13 +2400,13 @@
         <v>114349</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M32" s="7">
         <v>347</v>
@@ -2409,13 +2415,13 @@
         <v>268509</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,7 +2477,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C22_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C22_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCA6DC7-A5AC-40A4-9CB5-7B75700E50C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5137E2D3-DA47-4AFC-91A0-9649402BBDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4EE16F2D-1DE9-47BA-B975-DBDD45056DFD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2AD06EC9-5106-4141-8009-B86ED2BF15B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
-  <si>
-    <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
+  <si>
+    <t>Menores según frecuencia de sentirse solo en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -92,397 +92,367 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -897,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBE6C4D-3262-4376-B465-4171DCF94C91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48314AE-FEB4-4CB2-A98E-C4B2B42B255E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1559,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>965</v>
+        <v>42823</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1574,10 +1544,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>2676</v>
+        <v>66115</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1589,10 +1559,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="N16" s="7">
-        <v>3641</v>
+        <v>108938</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1610,49 +1580,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>21078</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>2191</v>
+        <v>22441</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="N17" s="7">
-        <v>2191</v>
+        <v>43519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,49 +1631,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>6879</v>
+        <v>3861</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>2982</v>
+        <v>6543</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N18" s="7">
-        <v>9860</v>
+        <v>10404</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,49 +1682,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>27625</v>
+        <v>163</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>33</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26761</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>54386</v>
+        <v>1243</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,49 +1733,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>63880</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3186</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="7">
-        <v>52</v>
-      </c>
-      <c r="I20" s="7">
-        <v>37055</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3186</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="7">
-        <v>130</v>
-      </c>
-      <c r="N20" s="7">
-        <v>100935</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,93 +1784,93 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>1809</v>
+        <v>93751</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>108</v>
+      </c>
+      <c r="I22" s="7">
+        <v>100257</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1851</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>67</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="N22" s="7">
-        <v>3660</v>
+        <v>194008</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>68</v>
@@ -1918,49 +1888,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D23" s="7">
-        <v>852</v>
+        <v>41003</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="I23" s="7">
-        <v>2684</v>
+        <v>60243</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="N23" s="7">
-        <v>3536</v>
+        <v>101246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,49 +1939,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>11985</v>
+        <v>6523</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>7446</v>
+        <v>9096</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N24" s="7">
-        <v>19431</v>
+        <v>15619</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,49 +1990,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>62905</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1951</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="7">
-        <v>47</v>
-      </c>
-      <c r="I25" s="7">
-        <v>41606</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1951</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="M25" s="7">
-        <v>110</v>
-      </c>
-      <c r="N25" s="7">
-        <v>104512</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,49 +2041,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>90281</v>
+        <v>1269</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1269</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="7">
-        <v>111</v>
-      </c>
-      <c r="I26" s="7">
-        <v>77293</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M26" s="7">
-        <v>217</v>
-      </c>
-      <c r="N26" s="7">
-        <v>167574</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,49 +2092,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D27" s="7">
-        <v>167832</v>
+        <v>142547</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>171547</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N27" s="7">
-        <v>298712</v>
+        <v>314094</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,49 +2145,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="D28" s="7">
-        <v>2774</v>
+        <v>136574</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="7">
+        <v>184</v>
+      </c>
+      <c r="I28" s="7">
+        <v>166372</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" s="7">
+        <v>343</v>
+      </c>
+      <c r="N28" s="7">
+        <v>302946</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="7">
-        <v>5</v>
-      </c>
-      <c r="I28" s="7">
-        <v>4527</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" s="7">
-        <v>10</v>
-      </c>
-      <c r="N28" s="7">
-        <v>7301</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,49 +2196,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D29" s="7">
-        <v>852</v>
+        <v>62081</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="7">
+        <v>100</v>
+      </c>
+      <c r="I29" s="7">
+        <v>82684</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="7">
+        <v>192</v>
+      </c>
+      <c r="N29" s="7">
+        <v>144765</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H29" s="7">
-        <v>6</v>
-      </c>
-      <c r="I29" s="7">
-        <v>4875</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M29" s="7">
-        <v>7</v>
-      </c>
-      <c r="N29" s="7">
-        <v>5727</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,49 +2247,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>18864</v>
+        <v>10384</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>15639</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="7">
+        <v>31</v>
+      </c>
+      <c r="N30" s="7">
+        <v>26023</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="7">
-        <v>16</v>
-      </c>
-      <c r="I30" s="7">
-        <v>10428</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M30" s="7">
-        <v>38</v>
-      </c>
-      <c r="N30" s="7">
-        <v>29292</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,49 +2298,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>90530</v>
+        <v>163</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3031</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3194</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="7">
-        <v>80</v>
-      </c>
-      <c r="I31" s="7">
-        <v>68367</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M31" s="7">
-        <v>175</v>
-      </c>
-      <c r="N31" s="7">
-        <v>158897</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,49 +2349,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>154160</v>
+        <v>1269</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H32" s="7">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>114349</v>
+        <v>3186</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
-        <v>347</v>
+        <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>268509</v>
+        <v>4456</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,54 +2400,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
-        <v>267180</v>
+        <v>210472</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>270912</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N33" s="7">
-        <v>469726</v>
+        <v>481384</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
